--- a/logs/2a/2aEDresult.xlsx
+++ b/logs/2a/2aEDresult.xlsx
@@ -442,502 +442,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>288504.5508113568</v>
+        <v>288504.4968115845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37609.82862424095</v>
+        <v>37609.87606959893</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>75565.8528822182</v>
+        <v>75566.12302500309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>78949.95940588829</v>
+        <v>78949.98289865095</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61159.02891982916</v>
+        <v>61159.09569383172</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>209731.5255150525</v>
+        <v>209732.0353826457</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>69626.30223623497</v>
+        <v>69625.77936239907</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>46469.70857545878</v>
+        <v>46469.92027224293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35696.14385609442</v>
+        <v>35696.17155773361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>63123.84478749041</v>
+        <v>63124.14637856394</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>53464.91023357871</v>
+        <v>53464.96791043549</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>81342.73572248663</v>
+        <v>81342.52512660263</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>81739.52457452597</v>
+        <v>81740.0275631526</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>19276.85656763474</v>
+        <v>19276.7971825435</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>117630.9536402359</v>
+        <v>117630.3777738958</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>99251.3719825726</v>
+        <v>99251.60183690395</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15979.75015829244</v>
+        <v>15979.68111872159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>82927.09302641748</v>
+        <v>82927.33110842887</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>45393.46432031956</v>
+        <v>45393.66305848495</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>64737.73085822884</v>
+        <v>64737.9578751236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>49632.69356745129</v>
+        <v>49632.58538851178</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>41955.87687536592</v>
+        <v>41955.92644364097</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>86807.04049347091</v>
+        <v>86807.81961536538</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>88327.06810272801</v>
+        <v>88327.21538467318</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13387.2039112985</v>
+        <v>13386.85976119546</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>52434.92956434948</v>
+        <v>52434.73559927553</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>56425.53542155959</v>
+        <v>56425.62168925868</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>75828.26811740537</v>
+        <v>75828.50915869071</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>78731.49033877561</v>
+        <v>78731.83667522449</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>188366.5224977621</v>
+        <v>188366.4874022655</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>68457.13245405869</v>
+        <v>68457.30996772535</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>64582.49572546703</v>
+        <v>64582.27350407637</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>103908.6745720124</v>
+        <v>103908.7838940631</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>113678.5499176987</v>
+        <v>113678.6030448472</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>94354.3146973332</v>
+        <v>94354.92408797311</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>78231.57813929534</v>
+        <v>78231.83743088985</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>85374.78615633408</v>
+        <v>85375.00445722807</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>22826.92162173722</v>
+        <v>22827.07805546312</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>231684.2522995113</v>
+        <v>231684.6220139017</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>92134.81420432765</v>
+        <v>92134.5419272694</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>49637.13083274924</v>
+        <v>49637.28097341386</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>62466.95265461144</v>
+        <v>62467.31479108258</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>37925.66687774626</v>
+        <v>37925.70216394638</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>127668.1739258605</v>
+        <v>127668.2505565264</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10681.45704567587</v>
+        <v>10681.58628284003</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>52800.57197574813</v>
+        <v>52800.42114224227</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43846.64443427842</v>
+        <v>43846.66292910924</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>54480.28487128675</v>
+        <v>54480.4735485104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>105453.8803313497</v>
+        <v>105453.628442099</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>41732.84436106237</v>
+        <v>41732.7070552631</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>59185.56625616069</v>
+        <v>59186.19610070176</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>105935.0833999371</v>
+        <v>105934.8841775835</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>32639.47633890131</v>
+        <v>32639.64904991424</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>35578.43318048371</v>
+        <v>35578.52668857432</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28872.66159863357</v>
+        <v>28872.91861230171</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>193509.3354416623</v>
+        <v>193509.6064439807</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>44183.33248351423</v>
+        <v>44183.35536972084</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20126.40780746128</v>
+        <v>20126.05371348506</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67991.28610770732</v>
+        <v>67991.14464464788</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>108611.6782937965</v>
+        <v>108612.4261547578</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>215771.5200893505</v>
+        <v>215771.7231485781</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>27211.84075890353</v>
+        <v>27211.74087433669</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>221896.2272498873</v>
+        <v>221895.0363181307</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>116860.7111063749</v>
+        <v>116861.2500346428</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>87068.56717412683</v>
+        <v>87068.54896430823</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>77127.90197223205</v>
+        <v>77128.16452744421</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>51208.20564629497</v>
+        <v>51207.91727121927</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>71891.96432015175</v>
+        <v>71891.52320928447</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>96523.56822806783</v>
+        <v>96524.158593956</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>28014.64430274286</v>
+        <v>28014.70959223764</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>126663.9479380092</v>
+        <v>126664.2161878099</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>29510.65657633863</v>
+        <v>29510.55136796742</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>51809.78794763309</v>
+        <v>51809.53854797445</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>216422.2744131096</v>
+        <v>216422.3788745711</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>29344.22800173918</v>
+        <v>29344.62026601113</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>86325.89188858398</v>
+        <v>86325.85530713463</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>45211.55894453867</v>
+        <v>45211.33815424064</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>70353.6320838845</v>
+        <v>70353.4189624916</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>96143.76320364367</v>
+        <v>96144.05930090263</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43331.71188431633</v>
+        <v>43331.73028498045</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>145844.8463954173</v>
+        <v>145844.6925526853</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>45967.54278047707</v>
+        <v>45967.67079417463</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>30561.36720004267</v>
+        <v>30561.6944303118</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>20249.21186314673</v>
+        <v>20248.76242101946</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>188687.3793641133</v>
+        <v>188687.8027428136</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>92686.66370008531</v>
+        <v>92686.61274049079</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>86460.60662827775</v>
+        <v>86460.79875170725</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>30336.23770554819</v>
+        <v>30336.07635390695</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>42396.88328025799</v>
+        <v>42397.00085108832</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>142429.2510757815</v>
+        <v>142429.3507422634</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>62840.98370790164</v>
+        <v>62840.98104627494</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>36088.37372944201</v>
+        <v>36088.42123636743</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>78887.39844741176</v>
+        <v>78887.16449893895</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>61317.30057170129</v>
+        <v>61317.04376545746</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>367767.7875245648</v>
+        <v>367767.6176664247</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>126952.1394098008</v>
+        <v>126952.5102973897</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>57549.78057554606</v>
+        <v>57549.64818690423</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>63200.69823052623</v>
+        <v>63200.24525708021</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>4925.772066883168</v>
+        <v>4926.077468679607</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>61362.41111483047</v>
+        <v>61362.27759933662</v>
       </c>
     </row>
   </sheetData>
